--- a/Supplementary/Supplementary Materials for Online.xlsx
+++ b/Supplementary/Supplementary Materials for Online.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2020博一所有材料\scNAE\手稿\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2020博一所有材料\scNAE\JBHI回稿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A283B4C-6BDF-42A2-8F82-8E08A4B670E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB75C67A-8CA1-4DC7-BE32-F1DD6035B41A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="9825" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="KEGG_pathway_information" sheetId="7" r:id="rId1"/>
-    <sheet name="Reacome_pathway_information" sheetId="6" r:id="rId2"/>
-    <sheet name="Wikipathway_pathway_information" sheetId="4" r:id="rId3"/>
+    <sheet name="scNAE KEGG_pathway" sheetId="7" r:id="rId1"/>
+    <sheet name="scNAE Reacome_pathway" sheetId="6" r:id="rId2"/>
+    <sheet name="scNAE Wikipathway_pathway" sheetId="4" r:id="rId3"/>
+    <sheet name="ALL results" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3043" uniqueCount="3017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3145" uniqueCount="3039">
   <si>
     <t>Hijack of ubiquitination by SARS-CoV-2</t>
   </si>
@@ -9086,6 +9087,93 @@
   <si>
     <t>SARS-CoV-2-related pathways are marked in red.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCNAE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetGSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netGO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topologygsa</t>
+  </si>
+  <si>
+    <t>pathnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GGEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSVA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell type VIII</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell type VII</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell type VI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell type V</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell type IV</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell type III</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell type II</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell type I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-HAS-9694586</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hsa05171</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9204,7 +9292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9238,12 +9326,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9261,6 +9343,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9579,8 +9670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9600,33 +9691,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>3016</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="18" t="s">
         <v>856</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="17" t="s">
         <v>855</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18" t="s">
         <v>854</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="18" t="s">
         <v>3014</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="6" t="s">
         <v>853</v>
       </c>
@@ -9651,8 +9742,8 @@
       <c r="I3" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -14789,38 +14880,38 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="151" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="17" t="s">
+    <row r="151" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="15" t="s">
         <v>2577</v>
       </c>
-      <c r="B151" s="13">
+      <c r="B151" s="11">
         <v>6.3448275862068998E-3</v>
       </c>
-      <c r="C151" s="13">
+      <c r="C151" s="11">
         <v>4.7840000000000001E-2</v>
       </c>
-      <c r="D151" s="13">
+      <c r="D151" s="11">
         <v>1.53333333333333E-2</v>
       </c>
-      <c r="E151" s="13">
+      <c r="E151" s="11">
         <v>6.13333333333333E-3</v>
       </c>
-      <c r="F151" s="13">
+      <c r="F151" s="11">
         <v>1.6727272727272698E-2</v>
       </c>
-      <c r="G151" s="13">
+      <c r="G151" s="11">
         <v>6.3448275862068998E-3</v>
       </c>
-      <c r="H151" s="13">
+      <c r="H151" s="11">
         <v>2.1904761904761899E-2</v>
       </c>
-      <c r="I151" s="13">
+      <c r="I151" s="11">
         <v>2.6285714285714301E-2</v>
       </c>
-      <c r="J151" s="18" t="s">
+      <c r="J151" s="16" t="s">
         <v>2576</v>
       </c>
-      <c r="K151" s="18" t="s">
+      <c r="K151" s="16" t="s">
         <v>2575</v>
       </c>
     </row>
@@ -16119,30 +16210,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>3016</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="18" t="s">
         <v>856</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="17" t="s">
         <v>3015</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="6" t="s">
         <v>853</v>
       </c>
@@ -16167,7 +16258,7 @@
       <c r="I3" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="J3" s="12"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -41897,35 +41988,35 @@
         <v>861</v>
       </c>
     </row>
-    <row r="808" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A808" s="17" t="s">
+    <row r="808" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A808" s="15" t="s">
         <v>860</v>
       </c>
-      <c r="B808" s="13">
+      <c r="B808" s="11">
         <v>0.13533582089552201</v>
       </c>
-      <c r="C808" s="13">
+      <c r="C808" s="11">
         <v>0.19394375</v>
       </c>
-      <c r="D808" s="13">
+      <c r="D808" s="11">
         <v>0.144666666666667</v>
       </c>
-      <c r="E808" s="13">
+      <c r="E808" s="11">
         <v>0.17224109589041101</v>
       </c>
-      <c r="F808" s="13">
+      <c r="F808" s="11">
         <v>0.16781072555205001</v>
       </c>
-      <c r="G808" s="13">
+      <c r="G808" s="11">
         <v>0.13481138790035599</v>
       </c>
-      <c r="H808" s="13">
+      <c r="H808" s="11">
         <v>0.183181818181818</v>
       </c>
-      <c r="I808" s="13">
+      <c r="I808" s="11">
         <v>0.174331460674157</v>
       </c>
-      <c r="J808" s="16" t="s">
+      <c r="J808" s="14" t="s">
         <v>859</v>
       </c>
     </row>
@@ -42000,32 +42091,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>3016</v>
       </c>
       <c r="B1" s="10"/>
       <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="18" t="s">
         <v>856</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="17" t="s">
         <v>3015</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="6" t="s">
         <v>853</v>
       </c>
@@ -42050,7 +42141,7 @@
       <c r="I3" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="J3" s="12"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -43780,35 +43871,35 @@
         <v>738</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
+    <row r="58" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="11" t="s">
         <v>737</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="11">
         <v>4.9882352941176501E-3</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="11">
         <v>5.2345679012345703E-3</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="11">
         <v>5.5064935064935098E-3</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="11">
         <v>5.3E-3</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="11">
         <v>5.5789473684210496E-3</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="11">
         <v>5.17073170731707E-3</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58" s="11">
         <v>5.8082191780821904E-3</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I58" s="11">
         <v>1.272E-2</v>
       </c>
-      <c r="J58" s="14" t="s">
+      <c r="J58" s="12" t="s">
         <v>736</v>
       </c>
     </row>
@@ -45444,35 +45535,35 @@
         <v>634</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="13" t="s">
+    <row r="110" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="B110" s="13">
+      <c r="B110" s="11">
         <v>0.1643</v>
       </c>
-      <c r="C110" s="13">
+      <c r="C110" s="11">
         <v>4.2728682170542598E-2</v>
       </c>
-      <c r="D110" s="13">
+      <c r="D110" s="11">
         <v>1.33894736842105E-2</v>
       </c>
-      <c r="E110" s="13">
+      <c r="E110" s="11">
         <v>5.3E-3</v>
       </c>
-      <c r="F110" s="13">
+      <c r="F110" s="11">
         <v>5.5789473684210496E-3</v>
       </c>
-      <c r="G110" s="13">
+      <c r="G110" s="11">
         <v>4.84571428571429E-2</v>
       </c>
-      <c r="H110" s="13">
+      <c r="H110" s="11">
         <v>1.9056179775280901E-2</v>
       </c>
-      <c r="I110" s="13">
+      <c r="I110" s="11">
         <v>5.3E-3</v>
       </c>
-      <c r="J110" s="14" t="s">
+      <c r="J110" s="12" t="s">
         <v>632</v>
       </c>
     </row>
@@ -49380,35 +49471,35 @@
         <v>389</v>
       </c>
     </row>
-    <row r="233" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="13" t="s">
+    <row r="233" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="B233" s="13">
+      <c r="B233" s="11">
         <v>4.9882352941176501E-3</v>
       </c>
-      <c r="C233" s="13">
+      <c r="C233" s="11">
         <v>5.2345679012345703E-3</v>
       </c>
-      <c r="D233" s="13">
+      <c r="D233" s="11">
         <v>5.5064935064935098E-3</v>
       </c>
-      <c r="E233" s="13">
+      <c r="E233" s="11">
         <v>5.3E-3</v>
       </c>
-      <c r="F233" s="13">
+      <c r="F233" s="11">
         <v>5.5789473684210496E-3</v>
       </c>
-      <c r="G233" s="13">
+      <c r="G233" s="11">
         <v>5.17073170731707E-3</v>
       </c>
-      <c r="H233" s="13">
+      <c r="H233" s="11">
         <v>5.8082191780821904E-3</v>
       </c>
-      <c r="I233" s="13">
+      <c r="I233" s="11">
         <v>5.3E-3</v>
       </c>
-      <c r="J233" s="14" t="s">
+      <c r="J233" s="12" t="s">
         <v>387</v>
       </c>
     </row>
@@ -51652,35 +51743,35 @@
         <v>248</v>
       </c>
     </row>
-    <row r="304" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="13" t="s">
+    <row r="304" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="B304" s="13">
+      <c r="B304" s="11">
         <v>0.17065560165975099</v>
       </c>
-      <c r="C304" s="13">
+      <c r="C304" s="11">
         <v>4.9882352941176503E-2</v>
       </c>
-      <c r="D304" s="13">
+      <c r="D304" s="11">
         <v>1.98130841121495E-2</v>
       </c>
-      <c r="E304" s="13">
+      <c r="E304" s="11">
         <v>0.154885844748858</v>
       </c>
-      <c r="F304" s="13">
+      <c r="F304" s="11">
         <v>0.20216033755274301</v>
       </c>
-      <c r="G304" s="13">
+      <c r="G304" s="11">
         <v>5.17073170731707E-3</v>
       </c>
-      <c r="H304" s="13">
+      <c r="H304" s="11">
         <v>4.20495867768595E-2</v>
       </c>
-      <c r="I304" s="13">
+      <c r="I304" s="11">
         <v>6.9863636363636406E-2</v>
       </c>
-      <c r="J304" s="14" t="s">
+      <c r="J304" s="12" t="s">
         <v>246</v>
       </c>
     </row>
@@ -53316,35 +53407,35 @@
         <v>144</v>
       </c>
     </row>
-    <row r="356" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="13" t="s">
+    <row r="356" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A356" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B356" s="13">
+      <c r="B356" s="11">
         <v>0.10704950495049501</v>
       </c>
-      <c r="C356" s="13">
+      <c r="C356" s="11">
         <v>0.201824</v>
       </c>
-      <c r="D356" s="13">
+      <c r="D356" s="11">
         <v>2.5152542372881399E-2</v>
       </c>
-      <c r="E356" s="13">
+      <c r="E356" s="11">
         <v>0.118273684210526</v>
       </c>
-      <c r="F356" s="13">
+      <c r="F356" s="11">
         <v>9.7311475409836104E-2</v>
       </c>
-      <c r="G356" s="13">
+      <c r="G356" s="11">
         <v>0.43746031746031699</v>
       </c>
-      <c r="H356" s="13">
+      <c r="H356" s="11">
         <v>5.8082191780821904E-3</v>
       </c>
-      <c r="I356" s="13">
+      <c r="I356" s="11">
         <v>0.113464788732394</v>
       </c>
-      <c r="J356" s="14" t="s">
+      <c r="J356" s="12" t="s">
         <v>142</v>
       </c>
     </row>
@@ -53636,35 +53727,35 @@
         <v>124</v>
       </c>
     </row>
-    <row r="366" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="13" t="s">
+    <row r="366" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B366" s="13">
+      <c r="B366" s="11">
         <v>2.3744000000000001E-2</v>
       </c>
-      <c r="C366" s="13">
+      <c r="C366" s="11">
         <v>6.9281045751634004E-2</v>
       </c>
-      <c r="D366" s="13">
+      <c r="D366" s="11">
         <v>5.5064935064935098E-3</v>
       </c>
-      <c r="E366" s="13">
+      <c r="E366" s="11">
         <v>6.9333333333333302E-2</v>
       </c>
-      <c r="F366" s="13">
+      <c r="F366" s="11">
         <v>5.5789473684210496E-3</v>
       </c>
-      <c r="G366" s="13">
+      <c r="G366" s="11">
         <v>5.17073170731707E-3</v>
       </c>
-      <c r="H366" s="13">
+      <c r="H366" s="11">
         <v>0.23958364312267699</v>
       </c>
-      <c r="I366" s="13">
+      <c r="I366" s="11">
         <v>0.18121161825726101</v>
       </c>
-      <c r="J366" s="14" t="s">
+      <c r="J366" s="12" t="s">
         <v>122</v>
       </c>
     </row>
@@ -60217,4 +60308,2844 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1996900B-C8D3-4524-B275-E15E654C4BB8}">
+  <dimension ref="A1:AA44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B1" s="19" t="s">
+        <v>3038</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="K1" s="19" t="s">
+        <v>3037</v>
+      </c>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B3" s="9">
+        <v>139</v>
+      </c>
+      <c r="C3" s="9">
+        <v>159</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>59</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <v>153</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
+        <v>394</v>
+      </c>
+      <c r="L3" s="9">
+        <v>566</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9">
+        <v>297</v>
+      </c>
+      <c r="O3" s="9">
+        <v>1</v>
+      </c>
+      <c r="P3" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>1</v>
+      </c>
+      <c r="R3" s="9">
+        <v>1</v>
+      </c>
+      <c r="T3" s="9">
+        <v>1</v>
+      </c>
+      <c r="U3" s="9">
+        <v>353</v>
+      </c>
+      <c r="V3" s="9">
+        <v>1</v>
+      </c>
+      <c r="W3" s="9">
+        <v>177</v>
+      </c>
+      <c r="X3" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>310</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B4" s="9">
+        <v>42</v>
+      </c>
+      <c r="C4" s="9">
+        <v>40</v>
+      </c>
+      <c r="D4" s="9">
+        <v>147</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>54</v>
+      </c>
+      <c r="G4" s="9">
+        <v>135</v>
+      </c>
+      <c r="H4" s="9">
+        <v>126</v>
+      </c>
+      <c r="I4" s="9">
+        <v>41</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
+        <v>91</v>
+      </c>
+      <c r="L4" s="9">
+        <v>60</v>
+      </c>
+      <c r="M4" s="9">
+        <v>588</v>
+      </c>
+      <c r="N4" s="9">
+        <v>1</v>
+      </c>
+      <c r="O4" s="9">
+        <v>183</v>
+      </c>
+      <c r="P4" s="9">
+        <v>96</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>140</v>
+      </c>
+      <c r="R4" s="9">
+        <v>114</v>
+      </c>
+      <c r="T4" s="9">
+        <v>78</v>
+      </c>
+      <c r="U4" s="9">
+        <v>81</v>
+      </c>
+      <c r="V4" s="9">
+        <v>105</v>
+      </c>
+      <c r="W4" s="9">
+        <v>1</v>
+      </c>
+      <c r="X4" s="9">
+        <v>64</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>316</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>84</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B5" s="9">
+        <v>147</v>
+      </c>
+      <c r="C5" s="9">
+        <v>115</v>
+      </c>
+      <c r="D5" s="9">
+        <v>166</v>
+      </c>
+      <c r="E5" s="9">
+        <v>135</v>
+      </c>
+      <c r="F5" s="9">
+        <v>151</v>
+      </c>
+      <c r="G5" s="9">
+        <v>157</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>145</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9">
+        <v>465</v>
+      </c>
+      <c r="L5" s="9">
+        <v>346</v>
+      </c>
+      <c r="M5" s="9">
+        <v>537</v>
+      </c>
+      <c r="N5" s="9">
+        <v>191</v>
+      </c>
+      <c r="O5" s="9">
+        <v>612</v>
+      </c>
+      <c r="P5" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>505</v>
+      </c>
+      <c r="R5" s="9">
+        <v>288</v>
+      </c>
+      <c r="T5" s="9">
+        <v>110</v>
+      </c>
+      <c r="U5" s="9">
+        <v>343</v>
+      </c>
+      <c r="V5" s="9">
+        <v>132</v>
+      </c>
+      <c r="W5" s="9">
+        <v>282</v>
+      </c>
+      <c r="X5" s="9">
+        <v>164</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>173</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>353</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B6" s="9">
+        <v>176</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>140</v>
+      </c>
+      <c r="E6" s="9">
+        <v>64</v>
+      </c>
+      <c r="F6" s="9">
+        <v>7</v>
+      </c>
+      <c r="G6" s="9">
+        <v>8</v>
+      </c>
+      <c r="H6" s="9">
+        <v>130</v>
+      </c>
+      <c r="I6" s="9">
+        <v>141</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9">
+        <v>2</v>
+      </c>
+      <c r="L6" s="9">
+        <v>20</v>
+      </c>
+      <c r="M6" s="9">
+        <v>664</v>
+      </c>
+      <c r="N6" s="9">
+        <v>272</v>
+      </c>
+      <c r="O6" s="9">
+        <v>122</v>
+      </c>
+      <c r="P6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>99</v>
+      </c>
+      <c r="R6" s="9">
+        <v>425</v>
+      </c>
+      <c r="T6" s="9">
+        <v>328</v>
+      </c>
+      <c r="U6" s="9">
+        <v>243</v>
+      </c>
+      <c r="V6" s="9">
+        <v>218</v>
+      </c>
+      <c r="W6" s="9">
+        <v>271</v>
+      </c>
+      <c r="X6" s="9">
+        <v>56</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>69</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>219</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B7" s="9">
+        <v>95</v>
+      </c>
+      <c r="C7" s="9">
+        <v>168</v>
+      </c>
+      <c r="D7" s="9">
+        <v>148</v>
+      </c>
+      <c r="E7" s="9">
+        <v>155</v>
+      </c>
+      <c r="F7" s="9">
+        <v>166</v>
+      </c>
+      <c r="G7" s="9">
+        <v>45</v>
+      </c>
+      <c r="H7" s="9">
+        <v>55</v>
+      </c>
+      <c r="I7" s="9">
+        <v>111</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9">
+        <v>204</v>
+      </c>
+      <c r="L7" s="9">
+        <v>681</v>
+      </c>
+      <c r="M7" s="9">
+        <v>287</v>
+      </c>
+      <c r="N7" s="9">
+        <v>302</v>
+      </c>
+      <c r="O7" s="9">
+        <v>445</v>
+      </c>
+      <c r="P7" s="9">
+        <v>306</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>461</v>
+      </c>
+      <c r="R7" s="9">
+        <v>282</v>
+      </c>
+      <c r="T7" s="9">
+        <v>137</v>
+      </c>
+      <c r="U7" s="9">
+        <v>163</v>
+      </c>
+      <c r="V7" s="9">
+        <v>72</v>
+      </c>
+      <c r="W7" s="9">
+        <v>128</v>
+      </c>
+      <c r="X7" s="9">
+        <v>130</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>173</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>145</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>71</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9">
+        <v>85</v>
+      </c>
+      <c r="I8" s="9">
+        <v>109</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9">
+        <v>466</v>
+      </c>
+      <c r="L8" s="9">
+        <v>437</v>
+      </c>
+      <c r="M8" s="9">
+        <v>448</v>
+      </c>
+      <c r="N8" s="9">
+        <v>474</v>
+      </c>
+      <c r="O8" s="9">
+        <v>406</v>
+      </c>
+      <c r="P8" s="9">
+        <v>468</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>446</v>
+      </c>
+      <c r="R8" s="9">
+        <v>444</v>
+      </c>
+      <c r="T8" s="9">
+        <v>127</v>
+      </c>
+      <c r="U8" s="9">
+        <v>219</v>
+      </c>
+      <c r="V8" s="9">
+        <v>215</v>
+      </c>
+      <c r="W8" s="9">
+        <v>178</v>
+      </c>
+      <c r="X8" s="9">
+        <v>188</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>195</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>190</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B9" s="9">
+        <v>144</v>
+      </c>
+      <c r="C9" s="9">
+        <v>155</v>
+      </c>
+      <c r="D9" s="9">
+        <v>155</v>
+      </c>
+      <c r="E9" s="9">
+        <v>91</v>
+      </c>
+      <c r="F9" s="9">
+        <v>136</v>
+      </c>
+      <c r="G9" s="9">
+        <v>134</v>
+      </c>
+      <c r="H9" s="9">
+        <v>118</v>
+      </c>
+      <c r="I9" s="9">
+        <v>115</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9">
+        <v>773</v>
+      </c>
+      <c r="L9" s="9">
+        <v>769</v>
+      </c>
+      <c r="M9" s="9">
+        <v>766</v>
+      </c>
+      <c r="N9" s="9">
+        <v>775</v>
+      </c>
+      <c r="O9" s="9">
+        <v>739</v>
+      </c>
+      <c r="P9" s="9">
+        <v>765</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>760</v>
+      </c>
+      <c r="R9" s="9">
+        <v>763</v>
+      </c>
+      <c r="T9" s="9">
+        <v>77</v>
+      </c>
+      <c r="U9" s="9">
+        <v>230</v>
+      </c>
+      <c r="V9" s="9">
+        <v>336</v>
+      </c>
+      <c r="W9" s="9">
+        <v>51</v>
+      </c>
+      <c r="X9" s="9">
+        <v>285</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>190</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>219</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B10" s="9">
+        <v>66</v>
+      </c>
+      <c r="C10" s="9">
+        <v>76</v>
+      </c>
+      <c r="D10" s="9">
+        <v>79</v>
+      </c>
+      <c r="E10" s="9">
+        <v>88</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>79</v>
+      </c>
+      <c r="H10" s="9">
+        <v>83</v>
+      </c>
+      <c r="I10" s="9">
+        <v>77</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9">
+        <v>269</v>
+      </c>
+      <c r="L10" s="9">
+        <v>279</v>
+      </c>
+      <c r="M10" s="9">
+        <v>280</v>
+      </c>
+      <c r="N10" s="9">
+        <v>322</v>
+      </c>
+      <c r="O10" s="9">
+        <v>271</v>
+      </c>
+      <c r="P10" s="9">
+        <v>281</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>279</v>
+      </c>
+      <c r="R10" s="9">
+        <v>277</v>
+      </c>
+      <c r="T10" s="9">
+        <v>156</v>
+      </c>
+      <c r="U10" s="9">
+        <v>138</v>
+      </c>
+      <c r="V10" s="9">
+        <v>41</v>
+      </c>
+      <c r="W10" s="9">
+        <v>103</v>
+      </c>
+      <c r="X10" s="9">
+        <v>56</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>14</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B11" s="9">
+        <v>55</v>
+      </c>
+      <c r="C11" s="9">
+        <v>4</v>
+      </c>
+      <c r="D11" s="9">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9">
+        <v>9</v>
+      </c>
+      <c r="F11" s="9">
+        <v>6</v>
+      </c>
+      <c r="G11" s="9">
+        <v>76</v>
+      </c>
+      <c r="H11" s="9">
+        <v>40</v>
+      </c>
+      <c r="I11" s="9">
+        <v>15</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9">
+        <v>635</v>
+      </c>
+      <c r="L11" s="9">
+        <v>638</v>
+      </c>
+      <c r="M11" s="9">
+        <v>638</v>
+      </c>
+      <c r="N11" s="9">
+        <v>637</v>
+      </c>
+      <c r="O11" s="9">
+        <v>636</v>
+      </c>
+      <c r="P11" s="9">
+        <v>638</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>638</v>
+      </c>
+      <c r="R11" s="9">
+        <v>638</v>
+      </c>
+      <c r="T11" s="9">
+        <v>63</v>
+      </c>
+      <c r="U11" s="9">
+        <v>133</v>
+      </c>
+      <c r="V11" s="9">
+        <v>296</v>
+      </c>
+      <c r="W11" s="9">
+        <v>229</v>
+      </c>
+      <c r="X11" s="9">
+        <v>147</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>134</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>78</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B12" s="9">
+        <v>95</v>
+      </c>
+      <c r="C12" s="9">
+        <v>100</v>
+      </c>
+      <c r="D12" s="9">
+        <v>70</v>
+      </c>
+      <c r="E12" s="9">
+        <v>95</v>
+      </c>
+      <c r="F12" s="9">
+        <v>42</v>
+      </c>
+      <c r="G12" s="9">
+        <v>117</v>
+      </c>
+      <c r="H12" s="9">
+        <v>83</v>
+      </c>
+      <c r="I12" s="9">
+        <v>77</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9">
+        <v>426</v>
+      </c>
+      <c r="L12" s="9">
+        <v>418</v>
+      </c>
+      <c r="M12" s="9">
+        <v>394</v>
+      </c>
+      <c r="N12" s="9">
+        <v>343</v>
+      </c>
+      <c r="O12" s="9">
+        <v>352</v>
+      </c>
+      <c r="P12" s="9">
+        <v>220</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>379</v>
+      </c>
+      <c r="R12" s="9">
+        <v>259</v>
+      </c>
+      <c r="T12" s="9">
+        <v>281</v>
+      </c>
+      <c r="U12" s="9">
+        <v>224</v>
+      </c>
+      <c r="V12" s="9">
+        <v>218</v>
+      </c>
+      <c r="W12" s="9">
+        <v>272</v>
+      </c>
+      <c r="X12" s="9">
+        <v>353</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>265</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>288</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B13" s="9">
+        <v>56</v>
+      </c>
+      <c r="C13" s="9">
+        <v>117</v>
+      </c>
+      <c r="D13" s="9">
+        <v>134</v>
+      </c>
+      <c r="E13" s="9">
+        <v>145</v>
+      </c>
+      <c r="F13" s="9">
+        <v>18</v>
+      </c>
+      <c r="G13" s="9">
+        <v>84</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9">
+        <v>82</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9">
+        <v>326</v>
+      </c>
+      <c r="L13" s="9">
+        <v>311</v>
+      </c>
+      <c r="M13" s="9">
+        <v>487</v>
+      </c>
+      <c r="N13" s="9">
+        <v>567</v>
+      </c>
+      <c r="O13" s="9">
+        <v>718</v>
+      </c>
+      <c r="P13" s="9">
+        <v>542</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>538</v>
+      </c>
+      <c r="R13" s="9">
+        <v>765</v>
+      </c>
+      <c r="T13" s="9">
+        <v>3</v>
+      </c>
+      <c r="U13" s="9">
+        <v>230</v>
+      </c>
+      <c r="V13" s="9">
+        <v>343</v>
+      </c>
+      <c r="W13" s="9">
+        <v>414</v>
+      </c>
+      <c r="X13" s="9">
+        <v>368</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>231</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>368</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9">
+        <v>49</v>
+      </c>
+      <c r="D14" s="9">
+        <v>32</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9">
+        <v>37</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>38</v>
+      </c>
+      <c r="I14" s="9">
+        <v>44</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9">
+        <v>266</v>
+      </c>
+      <c r="L14" s="9">
+        <v>320</v>
+      </c>
+      <c r="M14" s="9">
+        <v>310</v>
+      </c>
+      <c r="N14" s="9">
+        <v>362</v>
+      </c>
+      <c r="O14" s="9">
+        <v>317</v>
+      </c>
+      <c r="P14" s="9">
+        <v>279</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>329</v>
+      </c>
+      <c r="R14" s="9">
+        <v>354</v>
+      </c>
+      <c r="T14" s="9">
+        <v>1</v>
+      </c>
+      <c r="U14" s="9">
+        <v>1</v>
+      </c>
+      <c r="V14" s="9">
+        <v>1</v>
+      </c>
+      <c r="W14" s="9">
+        <v>1</v>
+      </c>
+      <c r="X14" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B18" s="9">
+        <v>294</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
+        <v>201</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9">
+        <v>310</v>
+      </c>
+      <c r="I18" s="9">
+        <v>304</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1</v>
+      </c>
+      <c r="L18" s="9">
+        <v>1</v>
+      </c>
+      <c r="M18" s="9">
+        <v>1</v>
+      </c>
+      <c r="N18" s="9">
+        <v>87</v>
+      </c>
+      <c r="O18" s="9">
+        <v>1</v>
+      </c>
+      <c r="P18" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>1</v>
+      </c>
+      <c r="R18" s="9">
+        <v>1</v>
+      </c>
+      <c r="T18" s="9">
+        <v>1</v>
+      </c>
+      <c r="U18" s="9">
+        <v>341</v>
+      </c>
+      <c r="V18" s="9">
+        <v>1</v>
+      </c>
+      <c r="W18" s="9">
+        <v>165</v>
+      </c>
+      <c r="X18" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>310</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B19" s="9">
+        <v>56</v>
+      </c>
+      <c r="C19" s="9">
+        <v>89</v>
+      </c>
+      <c r="D19" s="9">
+        <v>237</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
+        <v>103</v>
+      </c>
+      <c r="G19" s="9">
+        <v>2</v>
+      </c>
+      <c r="H19" s="9">
+        <v>95</v>
+      </c>
+      <c r="I19" s="9">
+        <v>117</v>
+      </c>
+      <c r="K19" s="9">
+        <v>5</v>
+      </c>
+      <c r="L19" s="9">
+        <v>213</v>
+      </c>
+      <c r="M19" s="9">
+        <v>322</v>
+      </c>
+      <c r="N19" s="9">
+        <v>216</v>
+      </c>
+      <c r="O19" s="9">
+        <v>103</v>
+      </c>
+      <c r="P19" s="9">
+        <v>316</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>337</v>
+      </c>
+      <c r="R19" s="9">
+        <v>76</v>
+      </c>
+      <c r="T19" s="9">
+        <v>78</v>
+      </c>
+      <c r="U19" s="9">
+        <v>1</v>
+      </c>
+      <c r="V19" s="9">
+        <v>1</v>
+      </c>
+      <c r="W19" s="9">
+        <v>1</v>
+      </c>
+      <c r="X19" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>86</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>6</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B20" s="9">
+        <v>253</v>
+      </c>
+      <c r="C20" s="9">
+        <v>278</v>
+      </c>
+      <c r="D20" s="9">
+        <v>132</v>
+      </c>
+      <c r="E20" s="9">
+        <v>45</v>
+      </c>
+      <c r="F20" s="9">
+        <v>337</v>
+      </c>
+      <c r="G20" s="9">
+        <v>246</v>
+      </c>
+      <c r="H20" s="9">
+        <v>117</v>
+      </c>
+      <c r="I20" s="9">
+        <v>360</v>
+      </c>
+      <c r="K20" s="9">
+        <v>130</v>
+      </c>
+      <c r="L20" s="9">
+        <v>190</v>
+      </c>
+      <c r="M20" s="9">
+        <v>1</v>
+      </c>
+      <c r="N20" s="9">
+        <v>180</v>
+      </c>
+      <c r="O20" s="9">
+        <v>1</v>
+      </c>
+      <c r="P20" s="9">
+        <v>297</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>210</v>
+      </c>
+      <c r="R20" s="9">
+        <v>132</v>
+      </c>
+      <c r="T20" s="9">
+        <v>252</v>
+      </c>
+      <c r="U20" s="9">
+        <v>173</v>
+      </c>
+      <c r="V20" s="9">
+        <v>120</v>
+      </c>
+      <c r="W20" s="9">
+        <v>315</v>
+      </c>
+      <c r="X20" s="9">
+        <v>298</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>84</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>182</v>
+      </c>
+      <c r="AA20" s="9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B21" s="9">
+        <v>168</v>
+      </c>
+      <c r="C21" s="9">
+        <v>360</v>
+      </c>
+      <c r="D21" s="9">
+        <v>29</v>
+      </c>
+      <c r="E21" s="9">
+        <v>157</v>
+      </c>
+      <c r="F21" s="9">
+        <v>95</v>
+      </c>
+      <c r="G21" s="9">
+        <v>112</v>
+      </c>
+      <c r="H21" s="9">
+        <v>229</v>
+      </c>
+      <c r="I21" s="9">
+        <v>292</v>
+      </c>
+      <c r="K21" s="9">
+        <v>224</v>
+      </c>
+      <c r="L21" s="9">
+        <v>292</v>
+      </c>
+      <c r="M21" s="9">
+        <v>235</v>
+      </c>
+      <c r="N21" s="9">
+        <v>198</v>
+      </c>
+      <c r="O21" s="9">
+        <v>190</v>
+      </c>
+      <c r="P21" s="9">
+        <v>222</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>349</v>
+      </c>
+      <c r="R21" s="9">
+        <v>121</v>
+      </c>
+      <c r="T21" s="9">
+        <v>373</v>
+      </c>
+      <c r="U21" s="9">
+        <v>309</v>
+      </c>
+      <c r="V21" s="9">
+        <v>132</v>
+      </c>
+      <c r="W21" s="9">
+        <v>370</v>
+      </c>
+      <c r="X21" s="9">
+        <v>237</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>279</v>
+      </c>
+      <c r="Z21" s="9">
+        <v>367</v>
+      </c>
+      <c r="AA21" s="9">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B22" s="9">
+        <v>339</v>
+      </c>
+      <c r="C22" s="9">
+        <v>175</v>
+      </c>
+      <c r="D22" s="9">
+        <v>306</v>
+      </c>
+      <c r="E22" s="9">
+        <v>155</v>
+      </c>
+      <c r="F22" s="9">
+        <v>335</v>
+      </c>
+      <c r="G22" s="9">
+        <v>85</v>
+      </c>
+      <c r="H22" s="9">
+        <v>92</v>
+      </c>
+      <c r="I22" s="9">
+        <v>268</v>
+      </c>
+      <c r="K22" s="9">
+        <v>373</v>
+      </c>
+      <c r="L22" s="9">
+        <v>146</v>
+      </c>
+      <c r="M22" s="9">
+        <v>82</v>
+      </c>
+      <c r="N22" s="9">
+        <v>206</v>
+      </c>
+      <c r="O22" s="9">
+        <v>180</v>
+      </c>
+      <c r="P22" s="9">
+        <v>380</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>356</v>
+      </c>
+      <c r="R22" s="9">
+        <v>254</v>
+      </c>
+      <c r="T22" s="9">
+        <v>186</v>
+      </c>
+      <c r="U22" s="9">
+        <v>79</v>
+      </c>
+      <c r="V22" s="9">
+        <v>114</v>
+      </c>
+      <c r="W22" s="9">
+        <v>73</v>
+      </c>
+      <c r="X22" s="9">
+        <v>167</v>
+      </c>
+      <c r="Y22" s="9">
+        <v>136</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>60</v>
+      </c>
+      <c r="AA22" s="9">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9">
+        <v>53</v>
+      </c>
+      <c r="I23" s="9">
+        <v>120</v>
+      </c>
+      <c r="K23" s="9">
+        <v>164</v>
+      </c>
+      <c r="L23" s="9">
+        <v>180</v>
+      </c>
+      <c r="M23" s="9">
+        <v>171</v>
+      </c>
+      <c r="N23" s="9">
+        <v>127</v>
+      </c>
+      <c r="O23" s="9">
+        <v>166</v>
+      </c>
+      <c r="P23" s="9">
+        <v>208</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>186</v>
+      </c>
+      <c r="R23" s="9">
+        <v>189</v>
+      </c>
+      <c r="T23" s="9">
+        <v>1</v>
+      </c>
+      <c r="U23" s="9">
+        <v>171</v>
+      </c>
+      <c r="V23" s="9">
+        <v>169</v>
+      </c>
+      <c r="W23" s="9">
+        <v>188</v>
+      </c>
+      <c r="X23" s="9">
+        <v>188</v>
+      </c>
+      <c r="Y23" s="9">
+        <v>63</v>
+      </c>
+      <c r="Z23" s="9">
+        <v>190</v>
+      </c>
+      <c r="AA23" s="9">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B24" s="9">
+        <v>51</v>
+      </c>
+      <c r="C24" s="9">
+        <v>399</v>
+      </c>
+      <c r="D24" s="9">
+        <v>393</v>
+      </c>
+      <c r="E24" s="9">
+        <v>146</v>
+      </c>
+      <c r="F24" s="9">
+        <v>381</v>
+      </c>
+      <c r="G24" s="9">
+        <v>355</v>
+      </c>
+      <c r="H24" s="9">
+        <v>409</v>
+      </c>
+      <c r="I24" s="9">
+        <v>399</v>
+      </c>
+      <c r="K24" s="9">
+        <v>333</v>
+      </c>
+      <c r="L24" s="9">
+        <v>343</v>
+      </c>
+      <c r="M24" s="9">
+        <v>396</v>
+      </c>
+      <c r="N24" s="9">
+        <v>294</v>
+      </c>
+      <c r="O24" s="9">
+        <v>265</v>
+      </c>
+      <c r="P24" s="9">
+        <v>358</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>325</v>
+      </c>
+      <c r="R24" s="9">
+        <v>211</v>
+      </c>
+      <c r="T24" s="9">
+        <v>121</v>
+      </c>
+      <c r="U24" s="9">
+        <v>102</v>
+      </c>
+      <c r="V24" s="9">
+        <v>112</v>
+      </c>
+      <c r="W24" s="9">
+        <v>111</v>
+      </c>
+      <c r="X24" s="9">
+        <v>372</v>
+      </c>
+      <c r="Y24" s="9">
+        <v>163</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>140</v>
+      </c>
+      <c r="AA24" s="9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B25" s="9">
+        <v>163</v>
+      </c>
+      <c r="C25" s="9">
+        <v>168</v>
+      </c>
+      <c r="D25" s="9">
+        <v>168</v>
+      </c>
+      <c r="E25" s="9">
+        <v>185</v>
+      </c>
+      <c r="F25" s="9">
+        <v>167</v>
+      </c>
+      <c r="G25" s="9">
+        <v>172</v>
+      </c>
+      <c r="H25" s="9">
+        <v>169</v>
+      </c>
+      <c r="I25" s="9">
+        <v>168</v>
+      </c>
+      <c r="K25" s="9">
+        <v>163</v>
+      </c>
+      <c r="L25" s="9">
+        <v>168</v>
+      </c>
+      <c r="M25" s="9">
+        <v>168</v>
+      </c>
+      <c r="N25" s="9">
+        <v>185</v>
+      </c>
+      <c r="O25" s="9">
+        <v>167</v>
+      </c>
+      <c r="P25" s="9">
+        <v>172</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>169</v>
+      </c>
+      <c r="R25" s="9">
+        <v>168</v>
+      </c>
+      <c r="T25" s="9">
+        <v>163</v>
+      </c>
+      <c r="U25" s="9">
+        <v>168</v>
+      </c>
+      <c r="V25" s="9">
+        <v>168</v>
+      </c>
+      <c r="W25" s="9">
+        <v>185</v>
+      </c>
+      <c r="X25" s="9">
+        <v>167</v>
+      </c>
+      <c r="Y25" s="9">
+        <v>172</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>169</v>
+      </c>
+      <c r="AA25" s="9">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B26" s="9">
+        <v>57</v>
+      </c>
+      <c r="C26" s="9">
+        <v>129</v>
+      </c>
+      <c r="D26" s="9">
+        <v>45</v>
+      </c>
+      <c r="E26" s="9">
+        <v>122</v>
+      </c>
+      <c r="F26" s="9">
+        <v>110</v>
+      </c>
+      <c r="G26" s="9">
+        <v>247</v>
+      </c>
+      <c r="H26" s="9">
+        <v>101</v>
+      </c>
+      <c r="I26" s="9">
+        <v>129</v>
+      </c>
+      <c r="K26" s="9">
+        <v>335</v>
+      </c>
+      <c r="L26" s="9">
+        <v>335</v>
+      </c>
+      <c r="M26" s="9">
+        <v>335</v>
+      </c>
+      <c r="N26" s="9">
+        <v>335</v>
+      </c>
+      <c r="O26" s="9">
+        <v>335</v>
+      </c>
+      <c r="P26" s="9">
+        <v>335</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>318</v>
+      </c>
+      <c r="R26" s="9">
+        <v>335</v>
+      </c>
+      <c r="T26" s="9">
+        <v>172</v>
+      </c>
+      <c r="U26" s="9">
+        <v>94</v>
+      </c>
+      <c r="V26" s="9">
+        <v>158</v>
+      </c>
+      <c r="W26" s="9">
+        <v>86</v>
+      </c>
+      <c r="X26" s="9">
+        <v>223</v>
+      </c>
+      <c r="Y26" s="9">
+        <v>125</v>
+      </c>
+      <c r="Z26" s="9">
+        <v>71</v>
+      </c>
+      <c r="AA26" s="9">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B27" s="9">
+        <v>324</v>
+      </c>
+      <c r="C27" s="9">
+        <v>301</v>
+      </c>
+      <c r="D27" s="9">
+        <v>297</v>
+      </c>
+      <c r="E27" s="9">
+        <v>356</v>
+      </c>
+      <c r="F27" s="9">
+        <v>375</v>
+      </c>
+      <c r="G27" s="9">
+        <v>335</v>
+      </c>
+      <c r="H27" s="9">
+        <v>354</v>
+      </c>
+      <c r="I27" s="9">
+        <v>340</v>
+      </c>
+      <c r="K27" s="9">
+        <v>281</v>
+      </c>
+      <c r="L27" s="9">
+        <v>304</v>
+      </c>
+      <c r="M27" s="9">
+        <v>282</v>
+      </c>
+      <c r="N27" s="9">
+        <v>343</v>
+      </c>
+      <c r="O27" s="9">
+        <v>324</v>
+      </c>
+      <c r="P27" s="9">
+        <v>331</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>326</v>
+      </c>
+      <c r="R27" s="9">
+        <v>324</v>
+      </c>
+      <c r="T27" s="9">
+        <v>33</v>
+      </c>
+      <c r="U27" s="9">
+        <v>32</v>
+      </c>
+      <c r="V27" s="9">
+        <v>29</v>
+      </c>
+      <c r="W27" s="9">
+        <v>40</v>
+      </c>
+      <c r="X27" s="9">
+        <v>389</v>
+      </c>
+      <c r="Y27" s="9">
+        <v>34</v>
+      </c>
+      <c r="Z27" s="9">
+        <v>28</v>
+      </c>
+      <c r="AA27" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B28" s="9">
+        <v>149</v>
+      </c>
+      <c r="C28" s="9">
+        <v>194</v>
+      </c>
+      <c r="D28" s="9">
+        <v>382</v>
+      </c>
+      <c r="E28" s="9">
+        <v>308</v>
+      </c>
+      <c r="F28" s="9">
+        <v>75</v>
+      </c>
+      <c r="G28" s="9">
+        <v>44</v>
+      </c>
+      <c r="H28" s="9">
+        <v>356</v>
+      </c>
+      <c r="I28" s="9">
+        <v>93</v>
+      </c>
+      <c r="K28" s="9">
+        <v>260</v>
+      </c>
+      <c r="L28" s="9">
+        <v>138</v>
+      </c>
+      <c r="M28" s="9">
+        <v>99</v>
+      </c>
+      <c r="N28" s="9">
+        <v>134</v>
+      </c>
+      <c r="O28" s="9">
+        <v>346</v>
+      </c>
+      <c r="P28" s="9">
+        <v>70</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>186</v>
+      </c>
+      <c r="R28" s="9">
+        <v>254</v>
+      </c>
+      <c r="T28" s="9">
+        <v>338</v>
+      </c>
+      <c r="U28" s="9">
+        <v>262</v>
+      </c>
+      <c r="V28" s="9">
+        <v>202</v>
+      </c>
+      <c r="W28" s="9">
+        <v>173</v>
+      </c>
+      <c r="X28" s="9">
+        <v>254</v>
+      </c>
+      <c r="Y28" s="9">
+        <v>78</v>
+      </c>
+      <c r="Z28" s="9">
+        <v>98</v>
+      </c>
+      <c r="AA28" s="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B29" s="9">
+        <v>240</v>
+      </c>
+      <c r="C29" s="9">
+        <v>126</v>
+      </c>
+      <c r="D29" s="9">
+        <v>89</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
+        <v>135</v>
+      </c>
+      <c r="H29" s="9">
+        <v>84</v>
+      </c>
+      <c r="I29" s="9">
+        <v>1</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1</v>
+      </c>
+      <c r="L29" s="9">
+        <v>1</v>
+      </c>
+      <c r="M29" s="9">
+        <v>1</v>
+      </c>
+      <c r="N29" s="9">
+        <v>1</v>
+      </c>
+      <c r="O29" s="9">
+        <v>1</v>
+      </c>
+      <c r="P29" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>1</v>
+      </c>
+      <c r="R29" s="9">
+        <v>1</v>
+      </c>
+      <c r="T29" s="9">
+        <v>241</v>
+      </c>
+      <c r="U29" s="9">
+        <v>135</v>
+      </c>
+      <c r="V29" s="9">
+        <v>103</v>
+      </c>
+      <c r="W29" s="9">
+        <v>219</v>
+      </c>
+      <c r="X29" s="9">
+        <v>236</v>
+      </c>
+      <c r="Y29" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="9">
+        <v>119</v>
+      </c>
+      <c r="AA29" s="9">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B33" s="9">
+        <v>330</v>
+      </c>
+      <c r="C33" s="9">
+        <v>1</v>
+      </c>
+      <c r="D33" s="9">
+        <v>243</v>
+      </c>
+      <c r="E33" s="9">
+        <v>141</v>
+      </c>
+      <c r="F33" s="9">
+        <v>286</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1</v>
+      </c>
+      <c r="H33" s="9">
+        <v>261</v>
+      </c>
+      <c r="I33" s="9">
+        <v>305</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9">
+        <v>1</v>
+      </c>
+      <c r="L33" s="9">
+        <v>1</v>
+      </c>
+      <c r="M33" s="9">
+        <v>337</v>
+      </c>
+      <c r="N33" s="9">
+        <v>128</v>
+      </c>
+      <c r="O33" s="9">
+        <v>1</v>
+      </c>
+      <c r="P33" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>1</v>
+      </c>
+      <c r="R33" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B34" s="9">
+        <v>78</v>
+      </c>
+      <c r="C34" s="9">
+        <v>1</v>
+      </c>
+      <c r="D34" s="9">
+        <v>77</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1</v>
+      </c>
+      <c r="F34" s="9">
+        <v>103</v>
+      </c>
+      <c r="G34" s="9">
+        <v>2</v>
+      </c>
+      <c r="H34" s="9">
+        <v>6</v>
+      </c>
+      <c r="I34" s="9">
+        <v>8</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9">
+        <v>325</v>
+      </c>
+      <c r="L34" s="9">
+        <v>89</v>
+      </c>
+      <c r="M34" s="9">
+        <v>322</v>
+      </c>
+      <c r="N34" s="9">
+        <v>1</v>
+      </c>
+      <c r="O34" s="9">
+        <v>329</v>
+      </c>
+      <c r="P34" s="9">
+        <v>293</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>337</v>
+      </c>
+      <c r="R34" s="9">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B35" s="9">
+        <v>140</v>
+      </c>
+      <c r="C35" s="9">
+        <v>151</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9">
+        <v>258</v>
+      </c>
+      <c r="F35" s="9">
+        <v>264</v>
+      </c>
+      <c r="G35" s="9">
+        <v>339</v>
+      </c>
+      <c r="H35" s="9">
+        <v>340</v>
+      </c>
+      <c r="I35" s="9">
+        <v>4</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9">
+        <v>233</v>
+      </c>
+      <c r="L35" s="9">
+        <v>107</v>
+      </c>
+      <c r="M35" s="9">
+        <v>1</v>
+      </c>
+      <c r="N35" s="9">
+        <v>297</v>
+      </c>
+      <c r="O35" s="9">
+        <v>268</v>
+      </c>
+      <c r="P35" s="9">
+        <v>141</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>59</v>
+      </c>
+      <c r="R35" s="9">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B36" s="9">
+        <v>341</v>
+      </c>
+      <c r="C36" s="9">
+        <v>328</v>
+      </c>
+      <c r="D36" s="9">
+        <v>289</v>
+      </c>
+      <c r="E36" s="9">
+        <v>53</v>
+      </c>
+      <c r="F36" s="9">
+        <v>379</v>
+      </c>
+      <c r="G36" s="9">
+        <v>325</v>
+      </c>
+      <c r="H36" s="9">
+        <v>300</v>
+      </c>
+      <c r="I36" s="9">
+        <v>81</v>
+      </c>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9">
+        <v>360</v>
+      </c>
+      <c r="L36" s="9">
+        <v>329</v>
+      </c>
+      <c r="M36" s="9">
+        <v>81</v>
+      </c>
+      <c r="N36" s="9">
+        <v>71</v>
+      </c>
+      <c r="O36" s="9">
+        <v>365</v>
+      </c>
+      <c r="P36" s="9">
+        <v>333</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>303</v>
+      </c>
+      <c r="R36" s="9">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B37" s="9">
+        <v>353</v>
+      </c>
+      <c r="C37" s="9">
+        <v>225</v>
+      </c>
+      <c r="D37" s="9">
+        <v>288</v>
+      </c>
+      <c r="E37" s="9">
+        <v>190</v>
+      </c>
+      <c r="F37" s="9">
+        <v>202</v>
+      </c>
+      <c r="G37" s="9">
+        <v>348</v>
+      </c>
+      <c r="H37" s="9">
+        <v>118</v>
+      </c>
+      <c r="I37" s="9">
+        <v>196</v>
+      </c>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9">
+        <v>212</v>
+      </c>
+      <c r="L37" s="9">
+        <v>296</v>
+      </c>
+      <c r="M37" s="9">
+        <v>353</v>
+      </c>
+      <c r="N37" s="9">
+        <v>325</v>
+      </c>
+      <c r="O37" s="9">
+        <v>158</v>
+      </c>
+      <c r="P37" s="9">
+        <v>154</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>234</v>
+      </c>
+      <c r="R37" s="9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B38" s="9">
+        <v>207</v>
+      </c>
+      <c r="C38" s="9">
+        <v>219</v>
+      </c>
+      <c r="D38" s="9">
+        <v>215</v>
+      </c>
+      <c r="E38" s="9">
+        <v>256</v>
+      </c>
+      <c r="F38" s="9">
+        <v>188</v>
+      </c>
+      <c r="G38" s="9">
+        <v>209</v>
+      </c>
+      <c r="H38" s="9">
+        <v>190</v>
+      </c>
+      <c r="I38" s="9">
+        <v>192</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9">
+        <v>207</v>
+      </c>
+      <c r="L38" s="9">
+        <v>219</v>
+      </c>
+      <c r="M38" s="9">
+        <v>215</v>
+      </c>
+      <c r="N38" s="9">
+        <v>256</v>
+      </c>
+      <c r="O38" s="9">
+        <v>188</v>
+      </c>
+      <c r="P38" s="9">
+        <v>209</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>190</v>
+      </c>
+      <c r="R38" s="9">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B39" s="9">
+        <v>166</v>
+      </c>
+      <c r="C39" s="9">
+        <v>167</v>
+      </c>
+      <c r="D39" s="9">
+        <v>150</v>
+      </c>
+      <c r="E39" s="9">
+        <v>165</v>
+      </c>
+      <c r="F39" s="9">
+        <v>374</v>
+      </c>
+      <c r="G39" s="9">
+        <v>154</v>
+      </c>
+      <c r="H39" s="9">
+        <v>140</v>
+      </c>
+      <c r="I39" s="9">
+        <v>155</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9">
+        <v>166</v>
+      </c>
+      <c r="L39" s="9">
+        <v>167</v>
+      </c>
+      <c r="M39" s="9">
+        <v>353</v>
+      </c>
+      <c r="N39" s="9">
+        <v>94</v>
+      </c>
+      <c r="O39" s="9">
+        <v>186</v>
+      </c>
+      <c r="P39" s="9">
+        <v>73</v>
+      </c>
+      <c r="Q39" s="9">
+        <v>129</v>
+      </c>
+      <c r="R39" s="9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B40" s="9">
+        <v>106</v>
+      </c>
+      <c r="C40" s="9">
+        <v>64</v>
+      </c>
+      <c r="D40" s="9">
+        <v>26</v>
+      </c>
+      <c r="E40" s="9">
+        <v>140</v>
+      </c>
+      <c r="F40" s="9">
+        <v>160</v>
+      </c>
+      <c r="G40" s="9">
+        <v>36</v>
+      </c>
+      <c r="H40" s="9">
+        <v>84</v>
+      </c>
+      <c r="I40" s="9">
+        <v>65</v>
+      </c>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9">
+        <v>143</v>
+      </c>
+      <c r="L40" s="9">
+        <v>51</v>
+      </c>
+      <c r="M40" s="9">
+        <v>128</v>
+      </c>
+      <c r="N40" s="9">
+        <v>75</v>
+      </c>
+      <c r="O40" s="9">
+        <v>110</v>
+      </c>
+      <c r="P40" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q40" s="9">
+        <v>84</v>
+      </c>
+      <c r="R40" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B41" s="9">
+        <v>211</v>
+      </c>
+      <c r="C41" s="9">
+        <v>175</v>
+      </c>
+      <c r="D41" s="9">
+        <v>216</v>
+      </c>
+      <c r="E41" s="9">
+        <v>167</v>
+      </c>
+      <c r="F41" s="9">
+        <v>275</v>
+      </c>
+      <c r="G41" s="9">
+        <v>40</v>
+      </c>
+      <c r="H41" s="9">
+        <v>46</v>
+      </c>
+      <c r="I41" s="9">
+        <v>56</v>
+      </c>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9">
+        <v>256</v>
+      </c>
+      <c r="L41" s="9">
+        <v>236</v>
+      </c>
+      <c r="M41" s="9">
+        <v>318</v>
+      </c>
+      <c r="N41" s="9">
+        <v>229</v>
+      </c>
+      <c r="O41" s="9">
+        <v>313</v>
+      </c>
+      <c r="P41" s="9">
+        <v>239</v>
+      </c>
+      <c r="Q41" s="9">
+        <v>164</v>
+      </c>
+      <c r="R41" s="9">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B42" s="9">
+        <v>35</v>
+      </c>
+      <c r="C42" s="9">
+        <v>30</v>
+      </c>
+      <c r="D42" s="9">
+        <v>24</v>
+      </c>
+      <c r="E42" s="9">
+        <v>36</v>
+      </c>
+      <c r="F42" s="9">
+        <v>87</v>
+      </c>
+      <c r="G42" s="9">
+        <v>27</v>
+      </c>
+      <c r="H42" s="9">
+        <v>24</v>
+      </c>
+      <c r="I42" s="9">
+        <v>24</v>
+      </c>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9">
+        <v>12</v>
+      </c>
+      <c r="L42" s="9">
+        <v>9</v>
+      </c>
+      <c r="M42" s="9">
+        <v>6</v>
+      </c>
+      <c r="N42" s="9">
+        <v>8</v>
+      </c>
+      <c r="O42" s="9">
+        <v>389</v>
+      </c>
+      <c r="P42" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>8</v>
+      </c>
+      <c r="R42" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B43" s="9">
+        <v>384</v>
+      </c>
+      <c r="C43" s="9">
+        <v>189</v>
+      </c>
+      <c r="D43" s="9">
+        <v>378</v>
+      </c>
+      <c r="E43" s="9">
+        <v>388</v>
+      </c>
+      <c r="F43" s="9">
+        <v>254</v>
+      </c>
+      <c r="G43" s="9">
+        <v>170</v>
+      </c>
+      <c r="H43" s="9">
+        <v>172</v>
+      </c>
+      <c r="I43" s="9">
+        <v>70</v>
+      </c>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9">
+        <v>301</v>
+      </c>
+      <c r="L43" s="9">
+        <v>303</v>
+      </c>
+      <c r="M43" s="9">
+        <v>223</v>
+      </c>
+      <c r="N43" s="9">
+        <v>134</v>
+      </c>
+      <c r="O43" s="9">
+        <v>245</v>
+      </c>
+      <c r="P43" s="9">
+        <v>255</v>
+      </c>
+      <c r="Q43" s="9">
+        <v>286</v>
+      </c>
+      <c r="R43" s="9">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B44" s="9">
+        <v>197</v>
+      </c>
+      <c r="C44" s="9">
+        <v>250</v>
+      </c>
+      <c r="D44" s="9">
+        <v>113</v>
+      </c>
+      <c r="E44" s="9">
+        <v>190</v>
+      </c>
+      <c r="F44" s="9">
+        <v>183</v>
+      </c>
+      <c r="G44" s="9">
+        <v>313</v>
+      </c>
+      <c r="H44" s="9">
+        <v>1</v>
+      </c>
+      <c r="I44" s="9">
+        <v>211</v>
+      </c>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9">
+        <v>125</v>
+      </c>
+      <c r="L44" s="9">
+        <v>153</v>
+      </c>
+      <c r="M44" s="9">
+        <v>1</v>
+      </c>
+      <c r="N44" s="9">
+        <v>157</v>
+      </c>
+      <c r="O44" s="9">
+        <v>1</v>
+      </c>
+      <c r="P44" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="9">
+        <v>265</v>
+      </c>
+      <c r="R44" s="9">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="K1:R1"/>
+    <mergeCell ref="T1:AA1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>